--- a/src/main/resources/files-for-importing/panos_courses.xlsx
+++ b/src/main/resources/files-for-importing/panos_courses.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Panos\CSE UOI\Personal_Projects\Course-Manager-Web-App\src\main\resources\csvFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Panos\CSE UOI\Personal_Projects\Course-Manager-Web-App\src\main\resources\files-for-importing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC1E8B-6ADD-4457-84DE-20297059589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3452420-EAA5-43F7-B85A-FA67C2133690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37E98379-31E8-4419-8134-4E3155E19D7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37E98379-31E8-4419-8134-4E3155E19D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="panos_courses" localSheetId="0">Sheet1!$A$1:$F$4</definedName>
+    <definedName name="panos_courses_1" localSheetId="0">Sheet1!$A$1:$F$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,8 +37,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D489FEC4-97DD-4B16-880A-5599BA3EE535}" name="panos_courses" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="737" sourceFile="D:\Panos\CSE UOI\Personal_Projects\Course-Manager-Web-App\src\main\resources\csvFiles\panos_courses.csv" tab="0" comma="1">
+  <connection id="1" xr16:uid="{740C25AB-75B2-4550-8813-B2A1ADA8DE3D}" name="panos_courses" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="737" sourceFile="D:\Panos\CSE UOI\Personal_Projects\Course-Manager-Web-App\src\main\resources\files-for-importing\panos_courses.csv" tab="0" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Software Development I</t>
   </si>
   <si>
-    <t xml:space="preserve"> Software development basics</t>
-  </si>
-  <si>
     <t>PLH-010</t>
   </si>
   <si>
@@ -100,7 +97,16 @@
     <t>Advanced Databases II</t>
   </si>
   <si>
-    <t xml:space="preserve"> Advanced Databases II and more</t>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Advanced Databases II and more</t>
+  </si>
+  <si>
+    <t>Software development basics</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="panos_courses" connectionId="1" xr16:uid="{C4C3AA40-9358-4964-B358-AB24E0980C3C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="panos_courses_1" connectionId="1" xr16:uid="{02FB08C2-6AEC-47D0-9976-8F01F6F12749}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,20 +466,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -501,56 +507,56 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
